--- a/configuration/AdminInstructorIns.xlsx
+++ b/configuration/AdminInstructorIns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\semester5\SoftwareTesting\PROJECT\New folder\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9639BF15-50D3-41B2-B985-2F319D49A944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC906BC1-4B88-46E8-81F5-0383934BF482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{489CC866-6254-4A86-9FC1-8E93F7D1D057}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -989,7 +989,7 @@
         <v>123</v>
       </c>
       <c r="H7" s="1">
-        <v>6372537</v>
+        <v>63725387</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
